--- a/pabi_budget_plan/xlsx_template/Budget_Plan_HREXP_Budget_20180803-form.xlsx
+++ b/pabi_budget_plan/xlsx_template/Budget_Plan_HREXP_Budget_20180803-form.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t xml:space="preserve">Fiscal Year</t>
   </si>
@@ -115,9 +115,6 @@
     <t xml:space="preserve">External</t>
   </si>
   <si>
-    <t xml:space="preserve">109999</t>
-  </si>
-  <si>
     <t xml:space="preserve">เงินเดือนและสวัสดิการ</t>
   </si>
   <si>
@@ -125,18 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">สวัสดิการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">409999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">509999</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
@@ -256,16 +241,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="222"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="222"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="222"/>
     </font>
     <font>
       <sz val="10"/>
@@ -913,21 +901,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="30.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="8" style="1" width="25.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="1" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="8" style="1" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="1" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -994,7 +982,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -1074,7 +1062,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
@@ -1082,18 +1070,18 @@
         <f aca="false">IF($D9="","",VLOOKUP(LEFT($D9,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>สก.</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>29</v>
+      <c r="D9" s="20" t="n">
+        <v>1099999</v>
       </c>
       <c r="E9" s="20" t="str">
         <f aca="false">IF($D9="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C9)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ สก.</v>
       </c>
       <c r="F9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -1121,7 +1109,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1129,18 +1117,18 @@
         <f aca="false">IF($D10="","",VLOOKUP(LEFT($D10,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>สก.</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>29</v>
+      <c r="D10" s="20" t="n">
+        <v>1099999</v>
       </c>
       <c r="E10" s="20" t="str">
         <f aca="false">IF($D10="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C10)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ สก.</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -1168,7 +1156,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
@@ -1177,17 +1165,17 @@
         <v>ศช.</v>
       </c>
       <c r="D11" s="20" t="n">
-        <v>209999</v>
+        <v>2099999</v>
       </c>
       <c r="E11" s="20" t="str">
         <f aca="false">IF($D11="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C11)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศช.</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -1215,7 +1203,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
@@ -1223,18 +1211,18 @@
         <f aca="false">IF($D12="","",VLOOKUP(LEFT($D12,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศช.</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>33</v>
+      <c r="D12" s="20" t="n">
+        <v>2099999</v>
       </c>
       <c r="E12" s="20" t="str">
         <f aca="false">IF($D12="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C12)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศช.</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -1262,7 +1250,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
@@ -1270,18 +1258,18 @@
         <f aca="false">IF($D13="","",VLOOKUP(LEFT($D13,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศว.</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>34</v>
+      <c r="D13" s="20" t="n">
+        <v>3099999</v>
       </c>
       <c r="E13" s="20" t="str">
         <f aca="false">IF($D13="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C13)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศว.</v>
       </c>
       <c r="F13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -1309,7 +1297,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
@@ -1317,18 +1305,18 @@
         <f aca="false">IF($D14="","",VLOOKUP(LEFT($D14,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศว.</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
+      <c r="D14" s="20" t="n">
+        <v>3099999</v>
       </c>
       <c r="E14" s="20" t="str">
         <f aca="false">IF($D14="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C14)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศว.</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -1356,7 +1344,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
@@ -1364,18 +1352,18 @@
         <f aca="false">IF($D15="","",VLOOKUP(LEFT($D15,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศอ.</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>35</v>
+      <c r="D15" s="20" t="n">
+        <v>4099999</v>
       </c>
       <c r="E15" s="20" t="str">
         <f aca="false">IF($D15="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C15)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศอ.</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -1403,7 +1391,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
@@ -1411,18 +1399,18 @@
         <f aca="false">IF($D16="","",VLOOKUP(LEFT($D16,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศอ.</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>35</v>
+      <c r="D16" s="20" t="n">
+        <v>4099999</v>
       </c>
       <c r="E16" s="20" t="str">
         <f aca="false">IF($D16="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C16)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศอ.</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -1450,7 +1438,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1458,18 +1446,18 @@
         <f aca="false">IF($D17="","",VLOOKUP(LEFT($D17,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศน.</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>36</v>
+      <c r="D17" s="20" t="n">
+        <v>5099999</v>
       </c>
       <c r="E17" s="20" t="str">
         <f aca="false">IF($D17="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C17)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศน.</v>
       </c>
       <c r="F17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -1497,7 +1485,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
@@ -1505,18 +1493,18 @@
         <f aca="false">IF($D18="","",VLOOKUP(LEFT($D18,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศน.</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>36</v>
+      <c r="D18" s="20" t="n">
+        <v>5099999</v>
       </c>
       <c r="E18" s="20" t="str">
         <f aca="false">IF($D18="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C18)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศน.</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -1856,9 +1844,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -1931,7 +1919,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="cf2a" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <conditionalFormatting sqref="V9:V12 V19:V26">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NA()</formula>
@@ -2009,124 +1997,124 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="50.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="50.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="37"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="37"/>
-    </row>
-    <row r="4" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/pabi_budget_plan/xlsx_template/Budget_Plan_HREXP_Budget_20180803-form.xlsx
+++ b/pabi_budget_plan/xlsx_template/Budget_Plan_HREXP_Budget_20180803-form.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\403 NEW PABI\03-Meeting\03-Budget\Template\20190626_may\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="HR-Expense" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TAB_List" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="HR-Expense" sheetId="1" r:id="rId1"/>
+    <sheet name="TAB_List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Max" vbProcedure="false">'HR-Expense'!$AA$3</definedName>
-    <definedName function="false" hidden="false" name="Min" vbProcedure="false">'HR-Expense'!$AA$2</definedName>
+    <definedName name="Max">'HR-Expense'!$AA$3</definedName>
+    <definedName name="Min">'HR-Expense'!$AA$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,209 +31,208 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
-    <t xml:space="preserve">Fiscal Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Export Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Org Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Export Date</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Responsible by</t>
+  </si>
+  <si>
+    <t>Total Budget</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Charge Type</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>Section Org</t>
+  </si>
+  <si>
+    <t>Section Org Description</t>
+  </si>
+  <si>
+    <t>Activity Group</t>
+  </si>
+  <si>
+    <t>Description
 (255 Characters)</t>
   </si>
   <si>
-    <t xml:space="preserve">Budget Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Budget vs Total Phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เงินเดือนและสวัสดิการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เงินเดือน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สวัสดิการ</t>
+    <t>Budget Plan</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Total Phase</t>
+  </si>
+  <si>
+    <t>Total Budget vs Total Phase</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>เงินเดือนและสวัสดิการ</t>
+  </si>
+  <si>
+    <t>เงินเดือน</t>
+  </si>
+  <si>
+    <t>สวัสดิการ</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
-    <t xml:space="preserve">Table : Organization Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org_Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alias_TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alias_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description_TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สก.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สำนักงานกลาง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศช.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOTEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศูนย์พันธุวิศวกรรมและเทคโนโลยีชีวภาพแห่งชาติ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Center for Genetic Engineering and Biotechnology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศว.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศูนย์เทคโนโลยีโลหะและวัสดุแห่งชาติ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Metal and Materials Technology Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศอ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NECTEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศูนย์เทคโนโลยีอิเล็กทรอนิกส์และคอมพิวเตอร์แห่งชาติ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Electronics and Computer Technology Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศน.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NANOTEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ศูนย์นาโนเทคโนโลยีแห่งชาติ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Nanotechnology Center</t>
+    <t>Table : Organization Structure</t>
+  </si>
+  <si>
+    <t>Org_Code</t>
+  </si>
+  <si>
+    <t>Alias_TH</t>
+  </si>
+  <si>
+    <t>Alias_EN</t>
+  </si>
+  <si>
+    <t>Description_TH</t>
+  </si>
+  <si>
+    <t>Description_EN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>สก.</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>สำนักงานกลาง</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ศช.</t>
+  </si>
+  <si>
+    <t>BIOTEC</t>
+  </si>
+  <si>
+    <t>ศูนย์พันธุวิศวกรรมและเทคโนโลยีชีวภาพแห่งชาติ</t>
+  </si>
+  <si>
+    <t>National Center for Genetic Engineering and Biotechnology</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ศว.</t>
+  </si>
+  <si>
+    <t>MTEC</t>
+  </si>
+  <si>
+    <t>ศูนย์เทคโนโลยีโลหะและวัสดุแห่งชาติ</t>
+  </si>
+  <si>
+    <t>National Metal and Materials Technology Center</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ศอ.</t>
+  </si>
+  <si>
+    <t>NECTEC</t>
+  </si>
+  <si>
+    <t>ศูนย์เทคโนโลยีอิเล็กทรอนิกส์และคอมพิวเตอร์แห่งชาติ</t>
+  </si>
+  <si>
+    <t>National Electronics and Computer Technology Center</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ศน.</t>
+  </si>
+  <si>
+    <t>NANOTEC</t>
+  </si>
+  <si>
+    <t>ศูนย์นาโนเทคโนโลยีแห่งชาติ</t>
+  </si>
+  <si>
+    <t>National Nanotechnology Center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="* #,##0\ ;\-* #,##0\ ;* &quot;- &quot;;@\ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00_);[RED]\(#,##0.00\);&quot;&quot;"/>
-    <numFmt numFmtId="169" formatCode="0\ ;\-0\ ;0\ ;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="* #,##0\ ;\-* #,##0\ ;* &quot;- &quot;;@\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_);[Red]\(#,##0.00\);&quot;&quot;"/>
+    <numFmt numFmtId="168" formatCode="0\ ;\-0\ ;0\ ;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -239,38 +242,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -292,7 +277,7 @@
       <charset val="222"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -306,14 +291,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -321,7 +306,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -386,28 +371,42 @@
     </fill>
   </fills>
   <borders count="18">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF0000FF"/>
       </left>
@@ -422,316 +421,304 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -741,7 +728,64 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -753,71 +797,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -826,6 +807,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -884,58 +866,331 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:AA27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="8" style="1" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="1" width="8.86"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="30.7109375" style="1" customWidth="1"/>
+    <col min="8" max="22" width="25.85546875" style="1" customWidth="1"/>
+    <col min="23" max="26" width="8.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" style="1" customWidth="1"/>
+    <col min="28" max="1025" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3"/>
       <c r="M2" s="4" t="str">
-        <f aca="false">IF(COUNTIF((U5),"Error")&lt;&gt;0,"Check phasing total","")</f>
+        <f>IF(COUNTIF((U5),"Error")&lt;&gt;0,"Check phasing total","")</f>
         <v/>
       </c>
       <c r="Z2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
@@ -943,47 +1198,47 @@
       <c r="Z3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="6" t="n">
-        <v>999999999999.99</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AA3" s="6">
+        <v>999999999999.98999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2" t="str">
-        <f aca="false">U8</f>
+        <f>U8</f>
         <v>Total Phase</v>
       </c>
       <c r="H4" s="7" t="str">
-        <f aca="false">IF(H5=0,"Final",IF(H5&gt;0,"Phase &lt; Budget",IF(H5&lt;0,"Phase &gt; Budget","Error")))</f>
+        <f>IF(H5=0,"Final",IF(H5&gt;0,"Phase &lt; Budget",IF(H5&lt;0,"Phase &gt; Budget","Error")))</f>
         <v>Final</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <f aca="false">H27</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <f aca="false">U27</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">F5-G5</f>
+      <c r="F5" s="7">
+        <f>H27</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f>U27</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f>F5-G5</f>
         <v>0</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f aca="false">IF(COUNTIF((W9:W27),"Error")&lt;&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f>IF(COUNTIF((W9:W27),"Error")&lt;&gt;0,"Error","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1251,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -1062,19 +1317,19 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="19" t="str">
-        <f aca="false">IF($D9="","",VLOOKUP(LEFT($D9,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D9="","",VLOOKUP(LEFT($D9,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>สก.</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="20">
         <v>1099999</v>
       </c>
       <c r="E9" s="20" t="str">
-        <f aca="false">IF($D9="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C9)</f>
+        <f t="shared" ref="E9:E26" si="0">IF($D9="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C9)</f>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ สก.</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -1096,32 +1351,32 @@
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="26" t="n">
-        <f aca="false">SUM(I9:T9)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="27" t="n">
-        <f aca="false">IF(H9-U9&lt;&gt;0,H9-U9,0)</f>
+      <c r="U9" s="26">
+        <f t="shared" ref="U9:U26" si="1">SUM(I9:T9)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="27">
+        <f t="shared" ref="V9:V26" si="2">IF(H9-U9&lt;&gt;0,H9-U9,0)</f>
         <v>0</v>
       </c>
       <c r="W9" s="28" t="str">
-        <f aca="false">IF(ABS(V9)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" ref="W9:W26" si="3">IF(ABS(V9)&gt;0,"Error","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="19" t="str">
-        <f aca="false">IF($D10="","",VLOOKUP(LEFT($D10,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D10="","",VLOOKUP(LEFT($D10,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>สก.</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="20">
         <v>1099999</v>
       </c>
       <c r="E10" s="20" t="str">
-        <f aca="false">IF($D10="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C10)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ สก.</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -1143,32 +1398,32 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="26" t="n">
-        <f aca="false">SUM(I10:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="27" t="n">
-        <f aca="false">IF(H10-U10&lt;&gt;0,H10-U10,0)</f>
+      <c r="U10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="28" t="str">
-        <f aca="false">IF(ABS(V10)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="19" t="str">
-        <f aca="false">IF($D11="","",VLOOKUP(LEFT($D11,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D11="","",VLOOKUP(LEFT($D11,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศช.</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="20">
         <v>2099999</v>
       </c>
       <c r="E11" s="20" t="str">
-        <f aca="false">IF($D11="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C11)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศช.</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -1190,32 +1445,32 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="26" t="n">
-        <f aca="false">SUM(I11:T11)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="27" t="n">
-        <f aca="false">IF(H11-U11&lt;&gt;0,H11-U11,0)</f>
+      <c r="U11" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="28" t="str">
-        <f aca="false">IF(ABS(V11)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="19" t="str">
-        <f aca="false">IF($D12="","",VLOOKUP(LEFT($D12,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D12="","",VLOOKUP(LEFT($D12,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศช.</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="20">
         <v>2099999</v>
       </c>
       <c r="E12" s="20" t="str">
-        <f aca="false">IF($D12="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C12)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศช.</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -1237,32 +1492,32 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="26" t="n">
-        <f aca="false">SUM(I12:T12)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="27" t="n">
-        <f aca="false">IF(H12-U12&lt;&gt;0,H12-U12,0)</f>
+      <c r="U12" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="28" t="str">
-        <f aca="false">IF(ABS(V12)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="19" t="str">
-        <f aca="false">IF($D13="","",VLOOKUP(LEFT($D13,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D13="","",VLOOKUP(LEFT($D13,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศว.</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="20">
         <v>3099999</v>
       </c>
       <c r="E13" s="20" t="str">
-        <f aca="false">IF($D13="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C13)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศว.</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -1284,32 +1539,32 @@
       <c r="R13" s="24"/>
       <c r="S13" s="24"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="26" t="n">
-        <f aca="false">SUM(I13:T13)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="27" t="n">
-        <f aca="false">IF(H13-U13&lt;&gt;0,H13-U13,0)</f>
+      <c r="U13" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="28" t="str">
-        <f aca="false">IF(ABS(V13)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="19" t="str">
-        <f aca="false">IF($D14="","",VLOOKUP(LEFT($D14,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D14="","",VLOOKUP(LEFT($D14,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศว.</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="20">
         <v>3099999</v>
       </c>
       <c r="E14" s="20" t="str">
-        <f aca="false">IF($D14="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C14)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศว.</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -1331,32 +1586,32 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="26" t="n">
-        <f aca="false">SUM(I14:T14)</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="27" t="n">
-        <f aca="false">IF(H14-U14&lt;&gt;0,H14-U14,0)</f>
+      <c r="U14" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="28" t="str">
-        <f aca="false">IF(ABS(V14)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="19" t="str">
-        <f aca="false">IF($D15="","",VLOOKUP(LEFT($D15,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D15="","",VLOOKUP(LEFT($D15,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศอ.</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="20">
         <v>4099999</v>
       </c>
       <c r="E15" s="20" t="str">
-        <f aca="false">IF($D15="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C15)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศอ.</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -1378,32 +1633,32 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="25"/>
-      <c r="U15" s="26" t="n">
-        <f aca="false">SUM(I15:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="27" t="n">
-        <f aca="false">IF(H15-U15&lt;&gt;0,H15-U15,0)</f>
+      <c r="U15" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="28" t="str">
-        <f aca="false">IF(ABS(V15)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="19" t="str">
-        <f aca="false">IF($D16="","",VLOOKUP(LEFT($D16,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D16="","",VLOOKUP(LEFT($D16,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศอ.</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="20">
         <v>4099999</v>
       </c>
       <c r="E16" s="20" t="str">
-        <f aca="false">IF($D16="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C16)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศอ.</v>
       </c>
       <c r="F16" s="19" t="s">
@@ -1425,32 +1680,32 @@
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
       <c r="T16" s="25"/>
-      <c r="U16" s="26" t="n">
-        <f aca="false">SUM(I16:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="27" t="n">
-        <f aca="false">IF(H16-U16&lt;&gt;0,H16-U16,0)</f>
+      <c r="U16" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="28" t="str">
-        <f aca="false">IF(ABS(V16)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="19" t="str">
-        <f aca="false">IF($D17="","",VLOOKUP(LEFT($D17,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D17="","",VLOOKUP(LEFT($D17,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศน.</v>
       </c>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="20">
         <v>5099999</v>
       </c>
       <c r="E17" s="20" t="str">
-        <f aca="false">IF($D17="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C17)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศน.</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -1472,32 +1727,32 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
       <c r="T17" s="25"/>
-      <c r="U17" s="26" t="n">
-        <f aca="false">SUM(I17:T17)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="27" t="n">
-        <f aca="false">IF(H17-U17&lt;&gt;0,H17-U17,0)</f>
+      <c r="U17" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="28" t="str">
-        <f aca="false">IF(ABS(V17)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="19" t="str">
-        <f aca="false">IF($D18="","",VLOOKUP(LEFT($D18,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D18="","",VLOOKUP(LEFT($D18,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v>ศน.</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="20">
         <v>5099999</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f aca="false">IF($D18="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C18)</f>
+        <f t="shared" si="0"/>
         <v>งบบุคลากรเงินเดือนและสวัสดิการ ศน.</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -1519,28 +1774,28 @@
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="25"/>
-      <c r="U18" s="26" t="n">
-        <f aca="false">SUM(I18:T18)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="27" t="n">
-        <f aca="false">IF(H18-U18&lt;&gt;0,H18-U18,0)</f>
+      <c r="U18" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="28" t="str">
-        <f aca="false">IF(ABS(V18)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="19" t="str">
-        <f aca="false">IF($D19="","",VLOOKUP(LEFT($D19,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D19="","",VLOOKUP(LEFT($D19,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20" t="str">
-        <f aca="false">IF($D19="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C19)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F19" s="19"/>
@@ -1558,28 +1813,28 @@
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
       <c r="T19" s="25"/>
-      <c r="U19" s="26" t="n">
-        <f aca="false">SUM(I19:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="27" t="n">
-        <f aca="false">IF(H19-U19&lt;&gt;0,H19-U19,0)</f>
+      <c r="U19" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="28" t="str">
-        <f aca="false">IF(ABS(V19)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="19" t="str">
-        <f aca="false">IF($D20="","",VLOOKUP(LEFT($D20,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D20="","",VLOOKUP(LEFT($D20,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20" t="str">
-        <f aca="false">IF($D20="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C20)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F20" s="19"/>
@@ -1597,28 +1852,28 @@
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="25"/>
-      <c r="U20" s="26" t="n">
-        <f aca="false">SUM(I20:T20)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="27" t="n">
-        <f aca="false">IF(H20-U20&lt;&gt;0,H20-U20,0)</f>
+      <c r="U20" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="28" t="str">
-        <f aca="false">IF(ABS(V20)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="str">
-        <f aca="false">IF($D21="","",VLOOKUP(LEFT($D21,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D21="","",VLOOKUP(LEFT($D21,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="str">
-        <f aca="false">IF($D21="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C21)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F21" s="19"/>
@@ -1636,28 +1891,28 @@
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
       <c r="T21" s="25"/>
-      <c r="U21" s="26" t="n">
-        <f aca="false">SUM(I21:T21)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="27" t="n">
-        <f aca="false">IF(H21-U21&lt;&gt;0,H21-U21,0)</f>
+      <c r="U21" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="28" t="str">
-        <f aca="false">IF(ABS(V21)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="19" t="str">
-        <f aca="false">IF($D22="","",VLOOKUP(LEFT($D22,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D22="","",VLOOKUP(LEFT($D22,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="str">
-        <f aca="false">IF($D22="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C22)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F22" s="19"/>
@@ -1675,28 +1930,28 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="26" t="n">
-        <f aca="false">SUM(I22:T22)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="27" t="n">
-        <f aca="false">IF(H22-U22&lt;&gt;0,H22-U22,0)</f>
+      <c r="U22" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="28" t="str">
-        <f aca="false">IF(ABS(V22)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="19" t="str">
-        <f aca="false">IF($D23="","",VLOOKUP(LEFT($D23,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D23="","",VLOOKUP(LEFT($D23,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19" t="str">
-        <f aca="false">IF($D23="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C23)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F23" s="19"/>
@@ -1714,28 +1969,28 @@
       <c r="R23" s="24"/>
       <c r="S23" s="24"/>
       <c r="T23" s="25"/>
-      <c r="U23" s="26" t="n">
-        <f aca="false">SUM(I23:T23)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="27" t="n">
-        <f aca="false">IF(H23-U23&lt;&gt;0,H23-U23,0)</f>
+      <c r="U23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="28" t="str">
-        <f aca="false">IF(ABS(V23)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="19" t="str">
-        <f aca="false">IF($D24="","",VLOOKUP(LEFT($D24,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D24="","",VLOOKUP(LEFT($D24,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="str">
-        <f aca="false">IF($D24="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C24)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F24" s="19"/>
@@ -1753,28 +2008,28 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="25"/>
-      <c r="U24" s="26" t="n">
-        <f aca="false">SUM(I24:T24)</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="27" t="n">
-        <f aca="false">IF(H24-U24&lt;&gt;0,H24-U24,0)</f>
+      <c r="U24" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="28" t="str">
-        <f aca="false">IF(ABS(V24)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="19" t="str">
-        <f aca="false">IF($D25="","",VLOOKUP(LEFT($D25,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D25="","",VLOOKUP(LEFT($D25,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="str">
-        <f aca="false">IF($D25="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C25)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F25" s="19"/>
@@ -1792,28 +2047,28 @@
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
       <c r="T25" s="25"/>
-      <c r="U25" s="26" t="n">
-        <f aca="false">SUM(I25:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="27" t="n">
-        <f aca="false">IF(H25-U25&lt;&gt;0,H25-U25,0)</f>
+      <c r="U25" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="28" t="str">
-        <f aca="false">IF(ABS(V25)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
       <c r="C26" s="19" t="str">
-        <f aca="false">IF($D26="","",VLOOKUP(LEFT($D26,1),TAB_List!$B$5:$F$12,2,0))</f>
+        <f>IF($D26="","",VLOOKUP(LEFT($D26,1),TAB_List!$B$5:$F$12,2,0))</f>
         <v/>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19" t="str">
-        <f aca="false">IF($D26="","","งบบุคลากรเงินเดือนและสวัสดิการ "&amp;$C26)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="19"/>
@@ -1831,20 +2086,20 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="25"/>
-      <c r="U26" s="26" t="n">
-        <f aca="false">SUM(I26:T26)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="27" t="n">
-        <f aca="false">IF(H26-U26&lt;&gt;0,H26-U26,0)</f>
+      <c r="U26" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="28" t="str">
-        <f aca="false">IF(ABS(V26)&gt;0,"Error","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>32</v>
       </c>
@@ -1853,169 +2108,160 @@
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="32" t="n">
-        <f aca="false">SUM(H9:H26)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="32" t="n">
-        <f aca="false">SUM(I9:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="33" t="n">
-        <f aca="false">SUM(J9:J26)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="34" t="n">
-        <f aca="false">SUM(K9:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="34" t="n">
-        <f aca="false">SUM(L9:L26)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="34" t="n">
-        <f aca="false">SUM(M9:M26)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="34" t="n">
-        <f aca="false">SUM(N9:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="34" t="n">
-        <f aca="false">SUM(O9:O26)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="34" t="n">
-        <f aca="false">SUM(P9:P26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="34" t="n">
-        <f aca="false">SUM(Q9:Q26)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="34" t="n">
-        <f aca="false">SUM(R9:R26)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="34" t="n">
-        <f aca="false">SUM(S9:S26)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="34" t="n">
-        <f aca="false">SUM(T9:T26)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="32" t="n">
-        <f aca="false">SUM(U9:U26)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="35" t="n">
-        <f aca="false">SUM(V9:V26)</f>
+      <c r="H27" s="32">
+        <f t="shared" ref="H27:V27" si="4">SUM(H9:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="35">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" s="36" t="str">
-        <f aca="false">IF(ABS(V27)&gt;10,"Error","")</f>
+        <f>IF(ABS(V27)&gt;10,"Error","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection password="CF2A" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="V9:V12 V19:V26">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>NA()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$H$4="Final"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$H$5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$H$4="Final"</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$H$5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>NA()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:V16">
-    <cfRule type="cellIs" priority="8" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>NA()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17:V18">
-    <cfRule type="cellIs" priority="9" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>NA()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" error="ท่านระบุ Activity Group ที่ไม่มีใน List กรุณาระบุข้อมูลใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="between" prompt="กรุณาระบุ Activity Group" promptTitle="ระบุ Acitivity Group" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F10" type="list">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="พบข้อผิดพลาด" error="ท่านระบุ Activity Group ที่ไม่มีใน List กรุณาระบุข้อมูลใหม่อีกครั้ง" promptTitle="ระบุ Acitivity Group" prompt="กรุณาระบุ Activity Group" sqref="F9:F10">
       <formula1>list_ag_exp</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U9:V26" type="decimal">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="U9:V26">
       <formula1>Min</formula1>
       <formula2>Max</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="ท่านระบุ Charge Type ที่ไม่มีใน List กรุณาระบุข้อมูลใหม่อีกครั้ง" errorTitle="พบข้อผิดพลาด" operator="equal" prompt="กรุณาระบุ Charge Type&#10;- External&#10;- Internal" promptTitle="ระบุ Charge Type" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9:B26" type="list">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" errorTitle="พบข้อผิดพลาด" error="ท่านระบุ Charge Type ที่ไม่มีใน List กรุณาระบุข้อมูลใหม่อีกครั้ง" promptTitle="ระบุ Charge Type" prompt="กรุณาระบุ Charge Type_x000a_- External_x000a_- Internal" sqref="B9:B26">
       <formula1>"External,Internal"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="ระบุจำนวนตัวเลขเกินจากเงื่อนไขที่กำหนด กรุณาระบุจำนวนตัวเลขตั้งแต่ 1 - 9999999999999.99" errorTitle="พบข้อผิดพลาด" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H9:T26" type="decimal">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="พบข้อผิดพลาด" error="ระบุจำนวนตัวเลขเกินจากเงื่อนไขที่กำหนด กรุณาระบุจำนวนตัวเลขตั้งแต่ 1 - 9999999999999.99" sqref="H9:T26">
       <formula1>Min</formula1>
       <formula2>Max</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="50.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="8.86"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="50.85546875" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:6" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:6" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
     </row>
-    <row r="4" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
@@ -2032,7 +2278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>39</v>
       </c>
@@ -2049,7 +2295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>43</v>
       </c>
@@ -2066,7 +2312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>48</v>
       </c>
@@ -2083,7 +2329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>53</v>
       </c>
@@ -2100,7 +2346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>58</v>
       </c>
@@ -2117,21 +2363,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -2139,13 +2385,8 @@
       <c r="F12" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="cf2a" objects="true" scenarios="true"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetProtection password="CF2A" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>